--- a/AI/aula_02_10/2025-2026 ESAN AInf EXER_Aula_03 - enunciado.xlsx
+++ b/AI/aula_02_10/2025-2026 ESAN AInf EXER_Aula_03 - enunciado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prgca\Desktop\Code\Aulas\AI\aula_02_10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55949FA-999F-49C3-A649-D40B909B317F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A277AAB-0354-40E5-805E-4513AE3748A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercicio 1" sheetId="2" r:id="rId1"/>
@@ -281,8 +281,8 @@
     <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="#,##0.00\ [$€-1]"/>
     <numFmt numFmtId="168" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* &quot;-&quot;??\ [$€-816]_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* &quot;-&quot;??\ [$€-816]_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -484,7 +484,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -579,22 +579,25 @@
     <xf numFmtId="168" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="13" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="13" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="13" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="13" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -905,13 +908,13 @@
   <sheetData>
     <row r="2" spans="2:8" ht="25.8" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
@@ -1146,12 +1149,12 @@
   <sheetData>
     <row r="2" spans="2:7" ht="25.8" x14ac:dyDescent="0.3">
       <c r="B2" s="8"/>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
@@ -1181,7 +1184,7 @@
       <c r="C5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="36">
         <v>45788</v>
       </c>
       <c r="E5" s="3"/>
@@ -1195,7 +1198,7 @@
       <c r="C6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="36">
         <v>44926</v>
       </c>
       <c r="E6" s="3"/>
@@ -1251,7 +1254,7 @@
       <c r="C10" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="37">
         <v>0.37430555555555556</v>
       </c>
       <c r="E10" s="3"/>
@@ -1354,22 +1357,22 @@
   <sheetData>
     <row r="2" spans="2:16" ht="25.8" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
     </row>
     <row r="3" spans="2:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
@@ -1541,7 +1544,7 @@
         <v>3000</v>
       </c>
       <c r="F7" s="13">
-        <f t="shared" ref="F6:F11" si="5">VLOOKUP(VLOOKUP(C7,$M$5:$N$11,2,FALSE),$M$22:$N$30,2,TRUE)</f>
+        <f t="shared" ref="F7:F11" si="5">VLOOKUP(VLOOKUP(C7,$M$5:$N$11,2,FALSE),$M$22:$N$30,2,TRUE)</f>
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="G7" s="12">
@@ -2297,15 +2300,15 @@
         <f>VLOOKUP($C$5,$C$8:$G$14,2,FALSE)</f>
         <v>28888</v>
       </c>
-      <c r="E5" s="40" t="str">
+      <c r="E5" s="39" t="str">
         <f>VLOOKUP($C$5,$C$8:$G$14,3,FALSE)</f>
         <v>M</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="39">
         <f>VLOOKUP($C$5,$C$8:$G$14,4,FALSE)</f>
         <v>213654987</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="38">
         <f>VLOOKUP($C$5,$C$8:$G$14,5,FALSE)</f>
         <v>1550</v>
       </c>
@@ -2502,8 +2505,8 @@
   </sheetPr>
   <dimension ref="B2:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2560,23 +2563,23 @@
     <row r="5" spans="2:8" s="27" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="26"/>
       <c r="C5" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="28">
-        <f>INDEX($C$8:$G$14,MATCH($C$5,$C$8:$C$14,0),3)</f>
-        <v>26620</v>
-      </c>
-      <c r="E5" s="40" t="str">
-        <f>INDEX($C$8:$G$14,MATCH($C$5,$C$8:$C$14,0),5)</f>
-        <v>F</v>
-      </c>
-      <c r="F5" s="40">
-        <f>INDEX($C$8:$G$14,MATCH($C$5,$C$8:$C$14,0),2)</f>
-        <v>214987523</v>
-      </c>
-      <c r="G5" s="39">
-        <f>INDEX($C$8:$G$14,MATCH($C$5,$C$8:$C$14,0),4)</f>
-        <v>2200</v>
+        <f>INDEX($C$7:$G$14,MATCH($C$5,$C$7:$C$14,0),MATCH(D$4,$C$7:$G$7,0))</f>
+        <v>28888</v>
+      </c>
+      <c r="E5" s="42" t="str">
+        <f>INDEX($C$7:$G$14,MATCH($C$5,$C$7:$C$14,0),MATCH(E$4,$C$7:$G$7,0))</f>
+        <v>M</v>
+      </c>
+      <c r="F5" s="42">
+        <f>INDEX($C$7:$G$14,MATCH($C$5,$C$7:$C$14,0),MATCH(F$4,$C$7:$G$7,0))</f>
+        <v>213654987</v>
+      </c>
+      <c r="G5" s="40">
+        <f>INDEX($C$7:$G$14,MATCH($C$5,$C$7:$C$14,0),MATCH(G$4,$C$7:$G$7,0))</f>
+        <v>1550</v>
       </c>
       <c r="H5" s="26"/>
     </row>
@@ -2767,8 +2770,8 @@
   </sheetPr>
   <dimension ref="B2:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2831,15 +2834,15 @@
         <f>_xlfn.XLOOKUP($C$5,$C$8:$C$14,$E$8:$E$14)</f>
         <v>26620</v>
       </c>
-      <c r="E5" s="40" t="str">
+      <c r="E5" s="39" t="str">
         <f>_xlfn.XLOOKUP($C$5,$C$8:$C$14,$G$8:$G$14)</f>
         <v>F</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="39">
         <f>_xlfn.XLOOKUP($C$5,$C$8:$C$14,$D$8:$D$14)</f>
         <v>214987523</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="40">
         <f>_xlfn.XLOOKUP($C$5,$C$8:$C$14,$F$8:$F$14)</f>
         <v>2200</v>
       </c>
@@ -3035,6 +3038,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006CB842600A0E964EBE88117445EBED7E" ma:contentTypeVersion="3" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="a725027eae200caf851bbd21b1eec2ae">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6c96d2b1-6fa3-4456-a494-3ce8b45afc84" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ff97e10b6262e29b4dd2ec9a7639a85" ns2:_="">
     <xsd:import namespace="6c96d2b1-6fa3-4456-a494-3ce8b45afc84"/>
@@ -3172,12 +3181,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA8296A2-F723-4D5F-8F47-4372A460EEAC}">
   <ds:schemaRefs>
@@ -3187,6 +3190,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50450D09-04CE-4C3A-AB80-2D0569F013C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59A561AF-37AD-4930-8BF8-32F4806912F0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3202,13 +3214,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50450D09-04CE-4C3A-AB80-2D0569F013C7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>